--- a/natmiOut/OldD0/LR-pairs_lrc2p/Bgn-Tlr4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Bgn-Tlr4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.4128211269151</v>
+        <v>41.47959733333333</v>
       </c>
       <c r="H2">
-        <v>17.4128211269151</v>
+        <v>124.438792</v>
       </c>
       <c r="I2">
-        <v>0.01457425910654007</v>
+        <v>0.03392314276466685</v>
       </c>
       <c r="J2">
-        <v>0.01457425910654007</v>
+        <v>0.03392314276466685</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.8836636743599</v>
+        <v>22.48784766666667</v>
       </c>
       <c r="N2">
-        <v>14.8836636743599</v>
+        <v>67.463543</v>
       </c>
       <c r="O2">
-        <v>0.3537858141378383</v>
+        <v>0.4520839499795984</v>
       </c>
       <c r="P2">
-        <v>0.3537858141378383</v>
+        <v>0.4520839499795983</v>
       </c>
       <c r="Q2">
-        <v>259.1665732747929</v>
+        <v>932.7868661066728</v>
       </c>
       <c r="R2">
-        <v>259.1665732747929</v>
+        <v>8395.081794960055</v>
       </c>
       <c r="S2">
-        <v>0.005156166123463081</v>
+        <v>0.01533610837677243</v>
       </c>
       <c r="T2">
-        <v>0.005156166123463081</v>
+        <v>0.01533610837677242</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.4128211269151</v>
+        <v>41.47959733333333</v>
       </c>
       <c r="H3">
-        <v>17.4128211269151</v>
+        <v>124.438792</v>
       </c>
       <c r="I3">
-        <v>0.01457425910654007</v>
+        <v>0.03392314276466685</v>
       </c>
       <c r="J3">
-        <v>0.01457425910654007</v>
+        <v>0.03392314276466685</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.2125934472654</v>
+        <v>23.26810333333333</v>
       </c>
       <c r="N3">
-        <v>23.2125934472654</v>
+        <v>69.80431</v>
       </c>
       <c r="O3">
-        <v>0.5517651064058074</v>
+        <v>0.4677698025791556</v>
       </c>
       <c r="P3">
-        <v>0.5517651064058074</v>
+        <v>0.4677698025791556</v>
       </c>
       <c r="Q3">
-        <v>404.1967375890341</v>
+        <v>965.1515569770577</v>
       </c>
       <c r="R3">
-        <v>404.1967375890341</v>
+        <v>8686.36401279352</v>
       </c>
       <c r="S3">
-        <v>0.008041567626705888</v>
+        <v>0.01586822179389272</v>
       </c>
       <c r="T3">
-        <v>0.008041567626705888</v>
+        <v>0.01586822179389272</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.4128211269151</v>
+        <v>41.47959733333333</v>
       </c>
       <c r="H4">
-        <v>17.4128211269151</v>
+        <v>124.438792</v>
       </c>
       <c r="I4">
-        <v>0.01457425910654007</v>
+        <v>0.03392314276466685</v>
       </c>
       <c r="J4">
-        <v>0.01457425910654007</v>
+        <v>0.03392314276466685</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.97344460067463</v>
+        <v>3.986685666666666</v>
       </c>
       <c r="N4">
-        <v>3.97344460067463</v>
+        <v>11.960057</v>
       </c>
       <c r="O4">
-        <v>0.09444907945635425</v>
+        <v>0.08014624744124609</v>
       </c>
       <c r="P4">
-        <v>0.09444907945635425</v>
+        <v>0.08014624744124607</v>
       </c>
       <c r="Q4">
-        <v>69.18888008925393</v>
+        <v>165.3661161479049</v>
       </c>
       <c r="R4">
-        <v>69.18888008925393</v>
+        <v>1488.295045331144</v>
       </c>
       <c r="S4">
-        <v>0.001376525356371097</v>
+        <v>0.002718812594001706</v>
       </c>
       <c r="T4">
-        <v>0.001376525356371097</v>
+        <v>0.002718812594001706</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1109.38072997686</v>
+        <v>1112.909261</v>
       </c>
       <c r="H5">
-        <v>1109.38072997686</v>
+        <v>3338.727783</v>
       </c>
       <c r="I5">
-        <v>0.9285343304591651</v>
+        <v>0.9101674599595009</v>
       </c>
       <c r="J5">
-        <v>0.9285343304591651</v>
+        <v>0.9101674599595008</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.8836636743599</v>
+        <v>22.48784766666667</v>
       </c>
       <c r="N5">
-        <v>14.8836636743599</v>
+        <v>67.463543</v>
       </c>
       <c r="O5">
-        <v>0.3537858141378383</v>
+        <v>0.4520839499795984</v>
       </c>
       <c r="P5">
-        <v>0.3537858141378383</v>
+        <v>0.4520839499795983</v>
       </c>
       <c r="Q5">
-        <v>16511.64967179146</v>
+        <v>25026.93392819057</v>
       </c>
       <c r="R5">
-        <v>16511.64967179146</v>
+        <v>225242.4053537151</v>
       </c>
       <c r="S5">
-        <v>0.3285022740564283</v>
+        <v>0.4114721004413891</v>
       </c>
       <c r="T5">
-        <v>0.3285022740564283</v>
+        <v>0.411472100441389</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1109.38072997686</v>
+        <v>1112.909261</v>
       </c>
       <c r="H6">
-        <v>1109.38072997686</v>
+        <v>3338.727783</v>
       </c>
       <c r="I6">
-        <v>0.9285343304591651</v>
+        <v>0.9101674599595009</v>
       </c>
       <c r="J6">
-        <v>0.9285343304591651</v>
+        <v>0.9101674599595008</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.2125934472654</v>
+        <v>23.26810333333333</v>
       </c>
       <c r="N6">
-        <v>23.2125934472654</v>
+        <v>69.80431</v>
       </c>
       <c r="O6">
-        <v>0.5517651064058074</v>
+        <v>0.4677698025791556</v>
       </c>
       <c r="P6">
-        <v>0.5517651064058074</v>
+        <v>0.4677698025791556</v>
       </c>
       <c r="Q6">
-        <v>25751.60386318337</v>
+        <v>25895.28768557163</v>
       </c>
       <c r="R6">
-        <v>25751.60386318337</v>
+        <v>233057.5891701447</v>
       </c>
       <c r="S6">
-        <v>0.5123328436472464</v>
+        <v>0.4257488530592273</v>
       </c>
       <c r="T6">
-        <v>0.5123328436472464</v>
+        <v>0.4257488530592272</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1109.38072997686</v>
+        <v>1112.909261</v>
       </c>
       <c r="H7">
-        <v>1109.38072997686</v>
+        <v>3338.727783</v>
       </c>
       <c r="I7">
-        <v>0.9285343304591651</v>
+        <v>0.9101674599595009</v>
       </c>
       <c r="J7">
-        <v>0.9285343304591651</v>
+        <v>0.9101674599595008</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.97344460067463</v>
+        <v>3.986685666666666</v>
       </c>
       <c r="N7">
-        <v>3.97344460067463</v>
+        <v>11.960057</v>
       </c>
       <c r="O7">
-        <v>0.09444907945635425</v>
+        <v>0.08014624744124609</v>
       </c>
       <c r="P7">
-        <v>0.09444907945635425</v>
+        <v>0.08014624744124607</v>
       </c>
       <c r="Q7">
-        <v>4408.062871619034</v>
+        <v>4436.819399129292</v>
       </c>
       <c r="R7">
-        <v>4408.062871619034</v>
+        <v>39931.37459216363</v>
       </c>
       <c r="S7">
-        <v>0.08769921275549038</v>
+        <v>0.07294650645888459</v>
       </c>
       <c r="T7">
-        <v>0.08769921275549038</v>
+        <v>0.07294650645888458</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>67.97189114784889</v>
+        <v>68.36333833333333</v>
       </c>
       <c r="H8">
-        <v>67.97189114784889</v>
+        <v>205.090015</v>
       </c>
       <c r="I8">
-        <v>0.0568914104342948</v>
+        <v>0.05590939727583234</v>
       </c>
       <c r="J8">
-        <v>0.0568914104342948</v>
+        <v>0.05590939727583233</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.8836636743599</v>
+        <v>22.48784766666667</v>
       </c>
       <c r="N8">
-        <v>14.8836636743599</v>
+        <v>67.463543</v>
       </c>
       <c r="O8">
-        <v>0.3537858141378383</v>
+        <v>0.4520839499795984</v>
       </c>
       <c r="P8">
-        <v>0.3537858141378383</v>
+        <v>0.4520839499795983</v>
       </c>
       <c r="Q8">
-        <v>1011.670767154784</v>
+        <v>1537.344338424794</v>
       </c>
       <c r="R8">
-        <v>1011.670767154784</v>
+        <v>13836.09904582314</v>
       </c>
       <c r="S8">
-        <v>0.0201273739579469</v>
+        <v>0.02527574116143688</v>
       </c>
       <c r="T8">
-        <v>0.0201273739579469</v>
+        <v>0.02527574116143687</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>67.97189114784889</v>
+        <v>68.36333833333333</v>
       </c>
       <c r="H9">
-        <v>67.97189114784889</v>
+        <v>205.090015</v>
       </c>
       <c r="I9">
-        <v>0.0568914104342948</v>
+        <v>0.05590939727583234</v>
       </c>
       <c r="J9">
-        <v>0.0568914104342948</v>
+        <v>0.05590939727583233</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.2125934472654</v>
+        <v>23.26810333333333</v>
       </c>
       <c r="N9">
-        <v>23.2125934472654</v>
+        <v>69.80431</v>
       </c>
       <c r="O9">
-        <v>0.5517651064058074</v>
+        <v>0.4677698025791556</v>
       </c>
       <c r="P9">
-        <v>0.5517651064058074</v>
+        <v>0.4677698025791556</v>
       </c>
       <c r="Q9">
-        <v>1577.803875056794</v>
+        <v>1590.685220551628</v>
       </c>
       <c r="R9">
-        <v>1577.803875056794</v>
+        <v>14316.16698496465</v>
       </c>
       <c r="S9">
-        <v>0.03139069513185513</v>
+        <v>0.02615272772603567</v>
       </c>
       <c r="T9">
-        <v>0.03139069513185513</v>
+        <v>0.02615272772603567</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>67.97189114784889</v>
+        <v>68.36333833333333</v>
       </c>
       <c r="H10">
-        <v>67.97189114784889</v>
+        <v>205.090015</v>
       </c>
       <c r="I10">
-        <v>0.0568914104342948</v>
+        <v>0.05590939727583234</v>
       </c>
       <c r="J10">
-        <v>0.0568914104342948</v>
+        <v>0.05590939727583233</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.97344460067463</v>
+        <v>3.986685666666666</v>
       </c>
       <c r="N10">
-        <v>3.97344460067463</v>
+        <v>11.960057</v>
       </c>
       <c r="O10">
-        <v>0.09444907945635425</v>
+        <v>0.08014624744124609</v>
       </c>
       <c r="P10">
-        <v>0.09444907945635425</v>
+        <v>0.08014624744124607</v>
       </c>
       <c r="Q10">
-        <v>270.0825438790638</v>
+        <v>272.5431410589838</v>
       </c>
       <c r="R10">
-        <v>270.0825438790638</v>
+        <v>2452.888269530855</v>
       </c>
       <c r="S10">
-        <v>0.005373341344492771</v>
+        <v>0.004480928388359788</v>
       </c>
       <c r="T10">
-        <v>0.005373341344492771</v>
+        <v>0.004480928388359787</v>
       </c>
     </row>
   </sheetData>
